--- a/Source_Files/RMI-Adminprojects,Generaltasks.xlsx
+++ b/Source_Files/RMI-Adminprojects,Generaltasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\anaconda3\envs\Code\RMICODING\Data\TimeCodingData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jwendt\Documents\Python_Projects\Source_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD9D88F-9B24-4668-9C54-355E848A256D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1E4F96-BF63-4738-9DA0-17D20C57ABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27156" yWindow="864" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Extract Project Structure - Ref" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="200">
   <si>
     <t>Project</t>
   </si>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t>Project Plan Task ID Home</t>
+  </si>
+  <si>
+    <t>CFT - Admin</t>
   </si>
 </sst>
 </file>
@@ -691,9 +694,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -731,7 +734,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -837,7 +840,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -979,7 +982,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -991,15 +994,15 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>14</v>
@@ -1196,7 +1199,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>101</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>105</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>109</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>114</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>119</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>177</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>134</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>192</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>77</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>138</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>143</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>148</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>187</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>171</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>182</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>153</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>157</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>161</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>166</v>
       </c>
@@ -2223,6 +2226,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011BD850C2FFEE64F8BF16F48D31BFF9D" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c06fe6258d326e160f0b3627dc246a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d71d259c-b7f4-4d1f-933c-f36e4d7387e1" xmlns:ns3="f1102fb1-953d-4acd-9d02-ddd30aca97cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4d11c8308a7520c90edb6c594463554" ns2:_="" ns3:_="">
     <xsd:import namespace="d71d259c-b7f4-4d1f-933c-f36e4d7387e1"/>
@@ -2423,15 +2435,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2439,13 +2442,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2CB2746-7E85-444D-967A-058D831B817E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B74115-5435-4368-8732-87EED9FFECA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B74115-5435-4368-8732-87EED9FFECA7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2CB2746-7E85-444D-967A-058D831B817E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d71d259c-b7f4-4d1f-933c-f36e4d7387e1"/>
+    <ds:schemaRef ds:uri="f1102fb1-953d-4acd-9d02-ddd30aca97cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FB09B21-9E45-4255-B2DA-CE408146A0C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FB09B21-9E45-4255-B2DA-CE408146A0C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>